--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -47,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -95,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,31 +130,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -152,6 +192,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,10 +516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -473,520 +530,447 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>43829</v>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>43632</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>37882</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D9" si="0">C2-C4</f>
-        <v>164</v>
-      </c>
-      <c r="E2" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="6">
-        <f>D2*E2</f>
-        <v>736.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+        <v>35320</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>20614</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>218.70000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>43794</v>
+        <v>19270</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43676</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>37718</v>
+        <v>35928</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>553</v>
-      </c>
-      <c r="E4" s="10">
+        <f>C4-C2</f>
+        <v>608</v>
+      </c>
+      <c r="E4" s="15">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>2482.9700000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
+        <v>2729.92</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM(F4,F5)</f>
+        <v>3501.8900000000003</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3550.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>20524</v>
+        <v>19593</v>
       </c>
       <c r="D5" s="3">
+        <f t="shared" ref="D5:D13" si="1">C5-C3</f>
+        <v>323</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>656.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>43752</v>
+        <v>771.97</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43711</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>37165</v>
+        <v>36454</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>711</v>
-      </c>
-      <c r="E6" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" ref="F6:F11" si="1">D6*E6</f>
-        <v>3192.3900000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+        <v>2361.7400000000002</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(F6,F7)</f>
+        <v>3044.57</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>20254</v>
+        <v>19874</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>923.40000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>43711</v>
+        <v>682.83</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43752</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>36454</v>
+        <v>37165</v>
       </c>
       <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>711</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>526</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>2361.7400000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+        <v>3192.3900000000003</v>
+      </c>
+      <c r="G8" s="14">
+        <f>SUM(F8,F9)</f>
+        <v>4115.7900000000009</v>
+      </c>
+      <c r="H8" s="14">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>19874</v>
+        <v>20254</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>281</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>682.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43676</v>
+        <v>923.40000000000009</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43794</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>35928</v>
+        <v>37718</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D16" si="2">C10-C12</f>
-        <v>608</v>
-      </c>
-      <c r="E10" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>2778.5600000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="E10" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
+        <v>2482.9700000000003</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(F10,F11)</f>
+        <v>3139.07</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3172.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>19593</v>
+        <v>20524</v>
       </c>
       <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="12">
         <f t="shared" si="2"/>
-        <v>323</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
+        <v>656.1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>43829</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>37882</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>771.97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43632</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>35320</v>
-      </c>
-      <c r="D12" s="3">
+        <v>164</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="13">
         <f t="shared" si="2"/>
-        <v>746</v>
-      </c>
-      <c r="E12" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12:F17" si="3">D12*E12</f>
-        <v>3409.2200000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>736.36</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(F12,F13)</f>
+        <v>955.06000000000006</v>
+      </c>
+      <c r="H12" s="14">
+        <v>964.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>19270</v>
+        <v>20614</v>
       </c>
       <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="12">
         <f t="shared" si="2"/>
-        <v>439</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="3"/>
-        <v>1049.21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>43591</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>218.70000000000002</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>43900</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
-        <v>34574</v>
+      <c r="C14" s="11">
+        <v>37920</v>
       </c>
       <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="3">C14-C12</f>
+        <v>38</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="13">
         <f t="shared" si="2"/>
-        <v>1416</v>
-      </c>
-      <c r="E14" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="3"/>
-        <v>6471.1200000000008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+        <v>170.62</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(F14,F15)</f>
+        <v>204.64000000000001</v>
+      </c>
+      <c r="H14" s="14">
+        <v>204.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>18831</v>
+        <v>20628</v>
       </c>
       <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="2"/>
-        <v>821</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="3"/>
-        <v>1962.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>43544</v>
-      </c>
-      <c r="B16" s="3" t="s">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>43920</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
-        <v>33158</v>
+      <c r="C16" s="11">
+        <v>38455</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E16" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="3"/>
-        <v>278.77000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+        <f t="shared" ref="D16:D17" si="4">C16-C14</f>
+        <v>535</v>
+      </c>
+      <c r="E16" s="16">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>2402.15</v>
+      </c>
+      <c r="G16" s="14">
+        <f>SUM(F16,F17)</f>
+        <v>3067.9700000000003</v>
+      </c>
+      <c r="H16" s="14">
+        <v>3067.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>18010</v>
+        <v>20902</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:D23" si="4">C17-C19</f>
-        <v>26</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="3"/>
-        <v>62.14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>43515</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>33097</v>
-      </c>
-      <c r="D18" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="E18" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F23" si="5">D18*E18</f>
-        <v>411.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>17984</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F19" s="6">
+        <v>274</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" si="5"/>
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43474</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>33007</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="4"/>
-        <v>472</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="5"/>
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>17934</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="4"/>
-        <v>278</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="5"/>
-        <v>653.30000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43433</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>32535</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="E22" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="5"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>17656</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="5"/>
-        <v>1057.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43383</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>31535</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>17206</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
+        <v>665.82</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(G2:G17)</f>
+        <v>18028.990000000002</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SUM(H2:H17)</f>
+        <v>18150.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="14">
+        <f>SUM(H18,-G18)</f>
+        <v>121.23999999999796</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -207,6 +214,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -950,26 +963,77 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="10">
+        <v>43955</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>39925</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" ref="D18:D19" si="6">C18-C16</f>
+        <v>1470</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <v>6600.3</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(F18,F19)</f>
+        <v>8286.7200000000012</v>
+      </c>
+      <c r="H18" s="14">
+        <v>8286.7199999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>21596</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="6"/>
+        <v>694</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="7"/>
+        <v>1686.42</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="14">
-        <f>SUM(G2:G17)</f>
-        <v>18028.990000000002</v>
-      </c>
-      <c r="H18" s="14">
-        <f>SUM(H2:H17)</f>
-        <v>18150.23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="14">
+        <f>SUM(G2:G19)</f>
+        <v>26315.710000000003</v>
+      </c>
+      <c r="H20" s="14">
+        <f>SUM(H2:H19)</f>
+        <v>26436.949999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="14">
-        <f>SUM(H18,-G18)</f>
-        <v>121.23999999999796</v>
+      <c r="G21" s="2"/>
+      <c r="H21" s="14">
+        <f>SUM(H20,-G20)</f>
+        <v>121.23999999999432</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -529,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1014,26 +1014,77 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="10">
+        <v>44000</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
+        <v>41188</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" ref="D20:D21" si="8">C20-C18</f>
+        <v>1263</v>
+      </c>
+      <c r="E20" s="16">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
+        <v>5670.87</v>
+      </c>
+      <c r="G20" s="14">
+        <f>SUM(F20,F21)</f>
+        <v>7320.84</v>
+      </c>
+      <c r="H20" s="14">
+        <v>7320.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>22275</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="8"/>
+        <v>679</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="9"/>
+        <v>1649.97</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="14">
-        <f>SUM(G2:G19)</f>
-        <v>26315.710000000003</v>
-      </c>
-      <c r="H20" s="14">
-        <f>SUM(H2:H19)</f>
-        <v>26436.949999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="14">
+        <f>SUM(G2:G21)</f>
+        <v>33636.550000000003</v>
+      </c>
+      <c r="H22" s="14">
+        <f>SUM(H2:H21)</f>
+        <v>33757.789999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="14">
-        <f>SUM(H20,-G20)</f>
-        <v>121.23999999999432</v>
+      <c r="G23" s="2"/>
+      <c r="H23" s="14">
+        <f>SUM(H22,-G22)</f>
+        <v>121.23999999999069</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -529,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1065,26 +1065,77 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="10">
+        <v>44039</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="18">
+        <v>41708</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" ref="D22:D23" si="10">C22-C20</f>
+        <v>520</v>
+      </c>
+      <c r="E22" s="16">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" ref="F22:F23" si="11">D22*E22</f>
+        <v>2449.1999999999998</v>
+      </c>
+      <c r="G22" s="14">
+        <f>SUM(F22,F23)</f>
+        <v>2892.8999999999996</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2802.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22449</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="10"/>
+        <v>174</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="11"/>
+        <v>443.7</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="14">
-        <f>SUM(G2:G21)</f>
-        <v>33636.550000000003</v>
-      </c>
-      <c r="H22" s="14">
-        <f>SUM(H2:H21)</f>
-        <v>33757.789999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="14">
+        <f>SUM(G2:G23)</f>
+        <v>36529.450000000004</v>
+      </c>
+      <c r="H24" s="14">
+        <f>SUM(H2:H23)</f>
+        <v>36560.30999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="14">
-        <f>SUM(H22,-G22)</f>
-        <v>121.23999999999069</v>
+      <c r="G25" s="2"/>
+      <c r="H25" s="14">
+        <f>SUM(H24,-G24)</f>
+        <v>30.85999999998603</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -529,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1116,26 +1116,77 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="10">
+        <v>44077</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="18">
+        <v>42254</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" ref="D24:D25" si="12">C24-C22</f>
+        <v>546</v>
+      </c>
+      <c r="E24" s="16">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" ref="F24:F25" si="13">D24*E24</f>
+        <v>2571.66</v>
+      </c>
+      <c r="G24" s="14">
+        <f>SUM(F24,F25)</f>
+        <v>2882.7599999999998</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22571</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="13"/>
+        <v>311.09999999999997</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="14">
-        <f>SUM(G2:G23)</f>
-        <v>36529.450000000004</v>
-      </c>
-      <c r="H24" s="14">
-        <f>SUM(H2:H23)</f>
-        <v>36560.30999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="14">
+        <f>SUM(G2:G25)</f>
+        <v>39412.210000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H2:H25)</f>
+        <v>39308.30999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="14">
-        <f>SUM(H24,-G24)</f>
-        <v>30.85999999998603</v>
+      <c r="G27" s="2"/>
+      <c r="H27" s="14">
+        <f>SUM(H26,-G26)</f>
+        <v>-103.90000000001601</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -529,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1167,26 +1167,77 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="10">
+        <v>44116</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>42997</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" ref="D26:D27" si="14">C26-C24</f>
+        <v>743</v>
+      </c>
+      <c r="E26" s="16">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" ref="F26:F27" si="15">D26*E26</f>
+        <v>3499.53</v>
+      </c>
+      <c r="G26" s="14">
+        <f>SUM(F26,F27)</f>
+        <v>4613.88</v>
+      </c>
+      <c r="H26" s="14">
+        <v>4154.9799999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>23008</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="14"/>
+        <v>437</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="15"/>
+        <v>1114.3499999999999</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="14">
-        <f>SUM(G2:G25)</f>
-        <v>39412.210000000006</v>
-      </c>
-      <c r="H26" s="14">
-        <f>SUM(H2:H25)</f>
-        <v>39308.30999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="14">
+        <f>SUM(G2:G26)</f>
+        <v>44026.090000000004</v>
+      </c>
+      <c r="H28" s="14">
+        <f>SUM(H2:H26)</f>
+        <v>43463.289999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="14">
-        <f>SUM(H26,-G26)</f>
-        <v>-103.90000000001601</v>
+      <c r="G29" s="2"/>
+      <c r="H29" s="14">
+        <f>SUM(H28,-G28)</f>
+        <v>-562.80000000001019</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>доплата</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +85,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -178,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,15 +189,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,16 +201,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F21" sqref="E17:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -576,20 +569,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>43632</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="7">
+        <v>44000</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>35320</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="14">
+        <v>41188</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11">
+        <v>121.24</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -597,41 +592,41 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>19270</v>
+        <v>22275</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43676</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="7">
+        <v>44039</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>35928</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>608</v>
-      </c>
-      <c r="E4" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>2729.92</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="C4" s="14">
+        <v>41708</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>520</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>2449.1999999999998</v>
+      </c>
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>3501.8900000000003</v>
-      </c>
-      <c r="H4" s="14">
-        <v>3550.53</v>
+        <v>2892.8999999999996</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2802.52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -640,604 +635,220 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>19593</v>
+        <v>22449</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D13" si="1">C5-C3</f>
-        <v>323</v>
+        <f t="shared" si="0"/>
+        <v>174</v>
       </c>
       <c r="E5" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="0"/>
-        <v>771.97</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>443.7</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43711</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="7">
+        <v>44077</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>36454</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>526</v>
-      </c>
-      <c r="E6" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="0"/>
-        <v>2361.7400000000002</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="C6" s="14">
+        <v>42254</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>546</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>2571.66</v>
+      </c>
+      <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>3044.57</v>
-      </c>
-      <c r="H6" s="14">
-        <v>3075</v>
+        <v>2882.7599999999998</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2748</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>19874</v>
+        <v>22571</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>281</v>
+        <f t="shared" si="2"/>
+        <v>122</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="0"/>
-        <v>682.83</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="3"/>
+        <v>311.09999999999997</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>43752</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7">
+        <v>44116</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>37165</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>711</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="0"/>
-        <v>3192.3900000000003</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="C8" s="14">
+        <v>42997</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>743</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>3499.53</v>
+      </c>
+      <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>4115.7900000000009</v>
-      </c>
-      <c r="H8" s="14">
-        <v>4115</v>
+        <v>4613.88</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4154.9799999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>20254</v>
+        <v>23008</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>380</v>
+        <f t="shared" si="4"/>
+        <v>437</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>923.40000000000009</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="5"/>
+        <v>1114.3499999999999</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>43794</v>
+      <c r="A10" s="15">
+        <v>44160</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>37718</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>553</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
-        <v>2482.9700000000003</v>
-      </c>
-      <c r="G10" s="14">
-        <f>SUM(F10,F11)</f>
-        <v>3139.07</v>
-      </c>
-      <c r="H10" s="14">
-        <v>3172.51</v>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="11">
+        <v>562.79999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="7">
+        <v>44165</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>45271</v>
+      </c>
+      <c r="D11" s="14">
+        <f>C11-C8</f>
+        <v>2274</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F12" si="6">D11*E11</f>
+        <v>10710.539999999999</v>
+      </c>
+      <c r="G11" s="16">
+        <f>SUM(F11,F12)</f>
+        <v>13291.14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>13291.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>20524</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="2"/>
-        <v>656.1</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>43829</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="3">
+        <v>24020</v>
+      </c>
+      <c r="D12" s="14">
+        <f>C12-C9</f>
+        <v>1012</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="6"/>
+        <v>2580.6</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11">
+        <f>SUM(G2:G12)</f>
+        <v>23680.68</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUM(H2:H12)</f>
+        <v>23680.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="11">
+        <f>SUM(H13,-G13)</f>
         <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>37882</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="E12" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="13">
-        <f t="shared" si="2"/>
-        <v>736.36</v>
-      </c>
-      <c r="G12" s="14">
-        <f>SUM(F12,F13)</f>
-        <v>955.06000000000006</v>
-      </c>
-      <c r="H12" s="14">
-        <v>964.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>20614</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="2"/>
-        <v>218.70000000000002</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>43900</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>37920</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="3">C14-C12</f>
-        <v>38</v>
-      </c>
-      <c r="E14" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="2"/>
-        <v>170.62</v>
-      </c>
-      <c r="G14" s="14">
-        <f>SUM(F14,F15)</f>
-        <v>204.64000000000001</v>
-      </c>
-      <c r="H14" s="14">
-        <v>204.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>20628</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="2"/>
-        <v>34.020000000000003</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>43920</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>38455</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="4">C16-C14</f>
-        <v>535</v>
-      </c>
-      <c r="E16" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="13">
-        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
-        <v>2402.15</v>
-      </c>
-      <c r="G16" s="14">
-        <f>SUM(F16,F17)</f>
-        <v>3067.9700000000003</v>
-      </c>
-      <c r="H16" s="14">
-        <v>3067.97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>20902</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="4"/>
-        <v>274</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="5"/>
-        <v>665.82</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>43955</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>39925</v>
-      </c>
-      <c r="D18" s="17">
-        <f t="shared" ref="D18:D19" si="6">C18-C16</f>
-        <v>1470</v>
-      </c>
-      <c r="E18" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
-        <v>6600.3</v>
-      </c>
-      <c r="G18" s="14">
-        <f>SUM(F18,F19)</f>
-        <v>8286.7200000000012</v>
-      </c>
-      <c r="H18" s="14">
-        <v>8286.7199999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>21596</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="6"/>
-        <v>694</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="7"/>
-        <v>1686.42</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>44000</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>41188</v>
-      </c>
-      <c r="D20" s="17">
-        <f t="shared" ref="D20:D21" si="8">C20-C18</f>
-        <v>1263</v>
-      </c>
-      <c r="E20" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="13">
-        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
-        <v>5670.87</v>
-      </c>
-      <c r="G20" s="14">
-        <f>SUM(F20,F21)</f>
-        <v>7320.84</v>
-      </c>
-      <c r="H20" s="14">
-        <v>7320.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>22275</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="8"/>
-        <v>679</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" si="9"/>
-        <v>1649.97</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>44039</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="18">
-        <v>41708</v>
-      </c>
-      <c r="D22" s="17">
-        <f t="shared" ref="D22:D23" si="10">C22-C20</f>
-        <v>520</v>
-      </c>
-      <c r="E22" s="16">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="13">
-        <f t="shared" ref="F22:F23" si="11">D22*E22</f>
-        <v>2449.1999999999998</v>
-      </c>
-      <c r="G22" s="14">
-        <f>SUM(F22,F23)</f>
-        <v>2892.8999999999996</v>
-      </c>
-      <c r="H22" s="14">
-        <v>2802.52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>22449</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="10"/>
-        <v>174</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="11"/>
-        <v>443.7</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>44077</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="18">
-        <v>42254</v>
-      </c>
-      <c r="D24" s="17">
-        <f t="shared" ref="D24:D25" si="12">C24-C22</f>
-        <v>546</v>
-      </c>
-      <c r="E24" s="16">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="13">
-        <f t="shared" ref="F24:F25" si="13">D24*E24</f>
-        <v>2571.66</v>
-      </c>
-      <c r="G24" s="14">
-        <f>SUM(F24,F25)</f>
-        <v>2882.7599999999998</v>
-      </c>
-      <c r="H24" s="14">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>22571</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="12"/>
-        <v>122</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="12">
-        <f t="shared" si="13"/>
-        <v>311.09999999999997</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>44116</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="18">
-        <v>42997</v>
-      </c>
-      <c r="D26" s="17">
-        <f t="shared" ref="D26:D27" si="14">C26-C24</f>
-        <v>743</v>
-      </c>
-      <c r="E26" s="16">
-        <v>4.71</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" ref="F26:F27" si="15">D26*E26</f>
-        <v>3499.53</v>
-      </c>
-      <c r="G26" s="14">
-        <f>SUM(F26,F27)</f>
-        <v>4613.88</v>
-      </c>
-      <c r="H26" s="14">
-        <v>4154.9799999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>23008</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="14"/>
-        <v>437</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F27" s="12">
-        <f t="shared" si="15"/>
-        <v>1114.3499999999999</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="14">
-        <f>SUM(G2:G26)</f>
-        <v>44026.090000000004</v>
-      </c>
-      <c r="H28" s="14">
-        <f>SUM(H2:H26)</f>
-        <v>43463.289999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="14">
-        <f>SUM(H28,-G28)</f>
-        <v>-562.80000000001019</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -522,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="E17:F21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>44165</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -829,25 +829,76 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+      <c r="A13" s="6">
+        <v>44207</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>47038</v>
+      </c>
+      <c r="D13" s="14">
+        <f>C13-C11</f>
+        <v>1767</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" ref="F13:F14" si="7">D13*E13</f>
+        <v>8322.57</v>
+      </c>
+      <c r="G13" s="16">
+        <f>SUM(F13,F14)</f>
+        <v>10535.97</v>
+      </c>
+      <c r="H13" s="11">
+        <v>10535.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>24888</v>
+      </c>
+      <c r="D14" s="14">
+        <f>C14-C12</f>
+        <v>868</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="7"/>
+        <v>2213.3999999999996</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G15" s="11">
         <f>SUM(G2:G12)</f>
         <v>23680.68</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H15" s="11">
         <f>SUM(H2:H12)</f>
         <v>23680.68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="11">
-        <f>SUM(H13,-G13)</f>
+      <c r="G16" s="2"/>
+      <c r="H16" s="11">
+        <f>SUM(H15,-G15)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -522,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,25 +880,127 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="A15" s="6">
+        <v>44242</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>48865</v>
+      </c>
+      <c r="D15" s="14">
+        <f>C15-C13</f>
+        <v>1827</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15:F16" si="8">D15*E15</f>
+        <v>8605.17</v>
+      </c>
+      <c r="G15" s="16">
+        <f>SUM(F15,F16)</f>
+        <v>11109.27</v>
+      </c>
+      <c r="H15" s="11">
+        <v>11109.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>25870</v>
+      </c>
+      <c r="D16" s="14">
+        <f>C16-C14</f>
+        <v>982</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="8"/>
+        <v>2504.1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>44277</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>49962</v>
+      </c>
+      <c r="D17" s="14">
+        <f>C17-C15</f>
+        <v>1097</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17:F18" si="9">D17*E17</f>
+        <v>5166.87</v>
+      </c>
+      <c r="G17" s="16">
+        <f>SUM(F17,F18)</f>
+        <v>6750.42</v>
+      </c>
+      <c r="H17" s="11">
+        <v>11109.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>26491</v>
+      </c>
+      <c r="D18" s="14">
+        <f>C18-C16</f>
+        <v>621</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="9"/>
+        <v>1583.55</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G19" s="11">
         <f>SUM(G2:G12)</f>
         <v>23680.68</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H19" s="11">
         <f>SUM(H2:H12)</f>
         <v>23680.68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="11">
-        <f>SUM(H15,-G15)</f>
+      <c r="G20" s="2"/>
+      <c r="H20" s="11">
+        <f>SUM(H19,-G19)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -522,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -839,14 +839,14 @@
         <v>47038</v>
       </c>
       <c r="D13" s="14">
-        <f>C13-C11</f>
+        <f t="shared" ref="D13:D20" si="7">C13-C11</f>
         <v>1767</v>
       </c>
       <c r="E13" s="12">
         <v>4.71</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" ref="F13:F14" si="7">D13*E13</f>
+        <f t="shared" ref="F13:F14" si="8">D13*E13</f>
         <v>8322.57</v>
       </c>
       <c r="G13" s="16">
@@ -866,14 +866,14 @@
         <v>24888</v>
       </c>
       <c r="D14" s="14">
-        <f>C14-C12</f>
+        <f t="shared" si="7"/>
         <v>868</v>
       </c>
       <c r="E14" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2213.3999999999996</v>
       </c>
       <c r="G14" s="2"/>
@@ -890,14 +890,14 @@
         <v>48865</v>
       </c>
       <c r="D15" s="14">
-        <f>C15-C13</f>
+        <f t="shared" si="7"/>
         <v>1827</v>
       </c>
       <c r="E15" s="12">
         <v>4.71</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" ref="F15:F16" si="8">D15*E15</f>
+        <f t="shared" ref="F15:F16" si="9">D15*E15</f>
         <v>8605.17</v>
       </c>
       <c r="G15" s="16">
@@ -917,14 +917,14 @@
         <v>25870</v>
       </c>
       <c r="D16" s="14">
-        <f>C16-C14</f>
+        <f t="shared" si="7"/>
         <v>982</v>
       </c>
       <c r="E16" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2504.1</v>
       </c>
       <c r="G16" s="2"/>
@@ -941,14 +941,14 @@
         <v>49962</v>
       </c>
       <c r="D17" s="14">
-        <f>C17-C15</f>
+        <f t="shared" si="7"/>
         <v>1097</v>
       </c>
       <c r="E17" s="12">
         <v>4.71</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" ref="F17:F18" si="9">D17*E17</f>
+        <f t="shared" ref="F17:F18" si="10">D17*E17</f>
         <v>5166.87</v>
       </c>
       <c r="G17" s="16">
@@ -968,40 +968,91 @@
         <v>26491</v>
       </c>
       <c r="D18" s="14">
-        <f>C18-C16</f>
+        <f t="shared" si="7"/>
         <v>621</v>
       </c>
       <c r="E18" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1583.55</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="A19" s="6">
+        <v>44320</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>51437</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="7"/>
+        <v>1475</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19:F20" si="11">D19*E19</f>
+        <v>6947.25</v>
+      </c>
+      <c r="G19" s="16">
+        <f>SUM(F19,F20)</f>
+        <v>8949</v>
+      </c>
+      <c r="H19" s="11">
+        <v>8949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>27276</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="7"/>
+        <v>785</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="11"/>
+        <v>2001.7499999999998</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="11">
-        <f>SUM(G2:G12)</f>
-        <v>23680.68</v>
-      </c>
-      <c r="H19" s="11">
-        <f>SUM(H2:H12)</f>
-        <v>23680.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="G21" s="11">
+        <f>SUM(G2:G20)</f>
+        <v>61025.34</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM(H2:H20)</f>
+        <v>65384.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="11">
-        <f>SUM(H19,-G19)</f>
-        <v>0</v>
+      <c r="G22" s="2"/>
+      <c r="H22" s="11">
+        <f>SUM(H21,-G21)</f>
+        <v>4358.8500000000058</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -522,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1033,25 +1033,76 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="A21" s="6">
+        <v>44392</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>52482</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" ref="D21:D22" si="12">C21-C19</f>
+        <v>1045</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21:F22" si="13">D21*E21</f>
+        <v>5183.2</v>
+      </c>
+      <c r="G21" s="16">
+        <f>SUM(F21,F22)</f>
+        <v>6338.28</v>
+      </c>
+      <c r="H21" s="11">
+        <v>6338.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>27707</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="12"/>
+        <v>431</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="13"/>
+        <v>1155.0800000000002</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="11">
-        <f>SUM(G2:G20)</f>
-        <v>61025.34</v>
-      </c>
-      <c r="H21" s="11">
-        <f>SUM(H2:H20)</f>
-        <v>65384.19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="G23" s="11">
+        <f>SUM(G2:G22)</f>
+        <v>67363.62</v>
+      </c>
+      <c r="H23" s="11">
+        <f>SUM(H2:H22)</f>
+        <v>71722.47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="11">
-        <f>SUM(H21,-G21)</f>
+      <c r="G24" s="2"/>
+      <c r="H24" s="11">
+        <f>SUM(H23,-G23)</f>
         <v>4358.8500000000058</v>
       </c>
     </row>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -213,6 +213,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,10 +525,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -956,7 +959,7 @@
         <v>6750.42</v>
       </c>
       <c r="H17" s="11">
-        <v>11109.27</v>
+        <v>6750.42</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1084,26 +1087,77 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="A23" s="6">
+        <v>44440</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="18">
+        <v>53324</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" ref="D23:D24" si="14">C23-C21</f>
+        <v>842</v>
+      </c>
+      <c r="E23" s="12">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" ref="F23:F24" si="15">D23*E23</f>
+        <v>4176.32</v>
+      </c>
+      <c r="G23" s="16">
+        <f>SUM(F23,F24)</f>
+        <v>5087.5199999999995</v>
+      </c>
+      <c r="H23" s="11">
+        <v>5087.5200000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>28047</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="14"/>
+        <v>340</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="15"/>
+        <v>911.2</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G25" s="11">
         <f>SUM(G2:G22)</f>
         <v>67363.62</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H25" s="11">
         <f>SUM(H2:H22)</f>
-        <v>71722.47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+        <v>67363.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="11">
-        <f>SUM(H23,-G23)</f>
-        <v>4358.8500000000058</v>
+      <c r="G26" s="2"/>
+      <c r="H26" s="11">
+        <f>SUM(H25,-G25)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -525,10 +525,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1138,25 +1138,76 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="A25" s="6">
+        <v>44495</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>55187</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" ref="D25:D26" si="16">C25-C23</f>
+        <v>1863</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" ref="F25:F26" si="17">D25*E25</f>
+        <v>9240.48</v>
+      </c>
+      <c r="G25" s="16">
+        <f>SUM(F25,F26)</f>
+        <v>11759.68</v>
+      </c>
+      <c r="H25" s="11">
+        <v>11759.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>28987</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="16"/>
+        <v>940</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="17"/>
+        <v>2519.2000000000003</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G27" s="11">
         <f>SUM(G2:G22)</f>
         <v>67363.62</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H27" s="11">
         <f>SUM(H2:H22)</f>
         <v>67363.62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="11">
-        <f>SUM(H25,-G25)</f>
+      <c r="G28" s="2"/>
+      <c r="H28" s="11">
+        <f>SUM(H27,-G27)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/100ee.xlsx
+++ b/sputnik/personal/ee/100ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -525,10 +525,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1189,25 +1189,76 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="A27" s="6">
+        <v>44539</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18">
+        <v>58024</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" ref="D27:D28" si="18">C27-C25</f>
+        <v>2837</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4.96</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" ref="F27:F28" si="19">D27*E27</f>
+        <v>14071.52</v>
+      </c>
+      <c r="G27" s="16">
+        <f>SUM(F27,F28)</f>
+        <v>17576.96</v>
+      </c>
+      <c r="H27" s="11">
+        <v>17576.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>30295</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" si="18"/>
+        <v>1308</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="19"/>
+        <v>3505.44</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="11">
-        <f>SUM(G2:G22)</f>
-        <v>67363.62</v>
-      </c>
-      <c r="H27" s="11">
-        <f>SUM(H2:H22)</f>
-        <v>67363.62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="G29" s="11">
+        <f>SUM(G2:G28)</f>
+        <v>101787.78</v>
+      </c>
+      <c r="H29" s="11">
+        <f>SUM(H2:H28)</f>
+        <v>101787.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="11">
-        <f>SUM(H27,-G27)</f>
+      <c r="G30" s="2"/>
+      <c r="H30" s="11">
+        <f>SUM(H29,-G29)</f>
         <v>0</v>
       </c>
     </row>
